--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D4A05-1D54-454B-B6A8-63CFCBB2CE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CB1D70-4B07-46D8-9D9B-15E8A763AF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{3E405F47-FE5A-4572-97A1-36BBF5A5D311}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{89E5DFD8-9FA3-4A0A-9BE7-0B14FE4EA0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6E526-439E-40A9-990B-AA89BCA8C07E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DFF155-E61C-452B-86A5-0E6746BEC428}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.41723223238145074</v>
+        <v>0.17328363687395232</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CB1D70-4B07-46D8-9D9B-15E8A763AF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44995AFB-67A6-4590-81AC-6BB676EF913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{89E5DFD8-9FA3-4A0A-9BE7-0B14FE4EA0C1}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{16087652-3DF0-483F-A436-A3073091E475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DFF155-E61C-452B-86A5-0E6746BEC428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD2CFD-AC85-49F9-B500-D8E37673470A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.17328363687395232</v>
+        <v>0.2298445991951901</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44995AFB-67A6-4590-81AC-6BB676EF913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BCC7E3-A074-4C9C-A7E0-EAD882351F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{16087652-3DF0-483F-A436-A3073091E475}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{ABAC9D33-FD09-43DF-B7B1-BFCB505371FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD2CFD-AC85-49F9-B500-D8E37673470A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E239B53-A2CA-4001-A01B-A20EE260EA9E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
